--- a/社员名单.xlsx
+++ b/社员名单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/add9aa567e991ffe/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_2B9EA92B90E1FA21D886A8C15AF1DC8F051CD19A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D74E6054-1814-4AF2-A41B-4FFF8BD6E747}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>入社日期</t>
   </si>
@@ -40,9 +46,6 @@
     <t>梁方圆</t>
   </si>
   <si>
-    <t>海朋</t>
-  </si>
-  <si>
     <t>韦昌池</t>
   </si>
   <si>
@@ -203,9 +206,6 @@
   </si>
   <si>
     <t>陈清源</t>
-  </si>
-  <si>
-    <t>5/11/2023</t>
   </si>
   <si>
     <t>黄莉雅</t>
@@ -220,21 +220,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="14" formatCode="yyyy/m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <name val="等线"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,29 +319,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -350,7 +361,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -611,25 +630,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:G58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A41" zoomScale="85">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" customWidth="0" width="9.066406" style="1"/>
-    <col min="2" max="2" customWidth="1" width="10.730469" style="1"/>
-    <col min="3" max="3" customWidth="1" width="8.796875" style="1"/>
-    <col min="4" max="4" customWidth="1" width="4.796875" style="1"/>
-    <col min="5" max="5" customWidth="1" width="6.796875" style="1"/>
-    <col min="6" max="6" customWidth="1" width="8.796875" style="1"/>
-    <col min="7" max="16384" customWidth="0" width="9.066406" style="1"/>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="10.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,599 +665,592 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
-      <c r="B2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4">
-        <v>1.0</v>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="8:8">
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="8:8">
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="8:8">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="8:8">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="8:8">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6">
-        <v>2.0</v>
-      </c>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="8:8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="8:8">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="8:8">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="8:8">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="8:8">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6">
-        <v>4.0</v>
-      </c>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="8:8">
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="8:8">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="8:8">
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="8:8">
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="2">
-        <v>6.0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="8:8">
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>7.0</v>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6">
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="8:8">
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6">
-        <v>8.0</v>
-      </c>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="8:8">
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="8:8">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="8:8">
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="8:8">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="8:8">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2">
+        <v>11</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="8:8">
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>11.0</v>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="10"/>
+      <c r="C24" s="5">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="8:8">
-      <c r="B25" s="3"/>
-      <c r="C25" s="2">
-        <v>2022.0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1.0</v>
-      </c>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="8:8">
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="10"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="8:8">
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="6">
-        <v>2.0</v>
-      </c>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="8:8">
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="10"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="8:8">
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="8:8">
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="8:8">
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="10"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="8:8">
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="10"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="8:8">
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="8:8">
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="8:8">
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="8:8">
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="10"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="8:8">
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>3.0</v>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="10"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6">
+        <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="8:8">
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="6">
-        <v>4.0</v>
-      </c>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="10"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="8:8">
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="10"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="8:8">
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="10"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="2">
-        <v>5.0</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="8:8">
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>6.0</v>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="10"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6">
+        <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="8:8">
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="6">
-        <v>8.0</v>
-      </c>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="10"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="8:8">
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="10"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="8:8">
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="10"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="8:8">
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="10"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="8:8">
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="5"/>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="10"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="3">
+        <v>9</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="8:8">
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="10"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="6">
-        <v>9.0</v>
+        <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="8:8">
-      <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="6">
-        <v>11.0</v>
-      </c>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="10"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="8:8">
-      <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="10"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6">
+        <v>12</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="8:8">
-      <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="6">
-        <v>12.0</v>
-      </c>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="10"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="8:8">
-      <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="5"/>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="11"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="2">
+        <v>14</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="8:8">
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
-        <v>14.0</v>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="8:8">
-      <c r="B53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="6">
-        <v>2021.0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1.0</v>
-      </c>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="8:8">
-      <c r="B54" s="2"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="2"/>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="8:8">
-      <c r="B55" s="2"/>
-      <c r="C55" s="4"/>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="5"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="2">
-        <v>3.0</v>
+        <v>6</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="8:8">
-      <c r="B56" s="2"/>
-      <c r="C56" s="5"/>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2021</v>
+      </c>
       <c r="D56" s="2">
-        <v>6.0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="8:8">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="D57" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="8:8" ht="15.2">
-      <c r="B58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="2">
-        <v>2022.0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="C2:C24"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C25:C52"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C23"/>
+    <mergeCell ref="B2:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C24:C51"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="D47:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
